--- a/GridMaze/7_x_7_maze/7_x_7_maze_BOM.xlsx
+++ b/GridMaze/7_x_7_maze/7_x_7_maze_BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0074F38-571E-4B78-A892-31A96322374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3648833E-B8BC-4EAB-AEA1-5C7E6D3645B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
   <si>
     <t>Part</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>26m</t>
+  </si>
+  <si>
+    <t>Molex Micro-Fit 3.0 cable 3m</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,84 +2393,101 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B84" t="s">
         <v>193</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
         <v>50</v>
       </c>
       <c r="E84" s="4">
-        <v>4230977</v>
+        <v>3862421</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="4">
+        <v>4230977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>197</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>199</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>1</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91">
+        <v>49</v>
+      </c>
+      <c r="E91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>194</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>4</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>195</v>
       </c>
     </row>
